--- a/projects/GMaps Data/2025-12-12/supermarkets_in_Berlin.xlsx
+++ b/projects/GMaps Data/2025-12-12/supermarkets_in_Berlin.xlsx
@@ -537,8 +537,12 @@
       <c r="I2" t="n">
         <v>4.2</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>52.519937</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.414687</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>GC97+XV Berlin, Germany</t>
